--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/Stub Advertiser DAY EMN PT Q4'19 Plan Rev - 12-16.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/Stub Advertiser DAY EMN PT Q4'19 Plan Rev - 12-16.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Broadcast Proposal Gorilla Glue Q4 '19 - Q1 '20</t>
   </si>
@@ -235,6 +235,9 @@
     <t>4Q '19 PT Total</t>
   </si>
   <si>
+    <t>4Q '19 ADU</t>
+  </si>
+  <si>
     <t>:15 equiv., :30</t>
   </si>
   <si>
@@ -247,7 +250,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/11/20</t>
+    <t>Created 02/14/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1726,7 +1729,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P59"/>
+  <dimension ref="A2:P68"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" tabSelected="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -3769,7 +3772,195 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="24" customHeight="1" s="94" customFormat="1"/>
+    <row r="61">
+      <c r="A61" s="57"/>
+      <c r="B61" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="133"/>
+      <c r="E61" s="133"/>
+      <c r="F61" s="134"/>
+      <c r="G61" s="133" t="s">
+        <v>56</v>
+      </c>
+      <c r="H61" s="133"/>
+      <c r="I61" s="133"/>
+      <c r="J61" s="134"/>
+      <c r="K61" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="L61" s="133"/>
+      <c r="M61" s="133"/>
+      <c r="N61" s="133"/>
+      <c r="O61" s="134"/>
+      <c r="P61" s="32"/>
+    </row>
+    <row r="62" ht="24" customHeight="1">
+      <c r="A62" s="57"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="55">
+        <v>43738</v>
+      </c>
+      <c r="D62" s="55">
+        <v>43745</v>
+      </c>
+      <c r="E62" s="55">
+        <v>43752</v>
+      </c>
+      <c r="F62" s="56">
+        <v>43759</v>
+      </c>
+      <c r="G62" s="55">
+        <v>43766</v>
+      </c>
+      <c r="H62" s="55">
+        <v>43773</v>
+      </c>
+      <c r="I62" s="55">
+        <v>43780</v>
+      </c>
+      <c r="J62" s="56">
+        <v>43787</v>
+      </c>
+      <c r="K62" s="55">
+        <v>43794</v>
+      </c>
+      <c r="L62" s="55">
+        <v>43801</v>
+      </c>
+      <c r="M62" s="55">
+        <v>43808</v>
+      </c>
+      <c r="N62" s="55">
+        <v>43815</v>
+      </c>
+      <c r="O62" s="56">
+        <v>43822</v>
+      </c>
+      <c r="P62" s="60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" ht="24" customHeight="1">
+      <c r="B63" s="114" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="101"/>
+      <c r="D63" s="102"/>
+      <c r="E63" s="102"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="102"/>
+      <c r="I63" s="102"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="101"/>
+      <c r="L63" s="102"/>
+      <c r="M63" s="102"/>
+      <c r="N63" s="102"/>
+      <c r="O63" s="59"/>
+      <c r="P63" s="105" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" ht="24" customHeight="1">
+      <c r="B64" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="104"/>
+      <c r="D64" s="96"/>
+      <c r="E64" s="106"/>
+      <c r="F64" s="107"/>
+      <c r="G64" s="104"/>
+      <c r="H64" s="96"/>
+      <c r="I64" s="106"/>
+      <c r="J64" s="107"/>
+      <c r="K64" s="104"/>
+      <c r="L64" s="96"/>
+      <c r="M64" s="106"/>
+      <c r="N64" s="106"/>
+      <c r="O64" s="99"/>
+      <c r="P64" s="99"/>
+    </row>
+    <row r="65" ht="24" customHeight="1">
+      <c r="B65" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="103"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="109"/>
+      <c r="G65" s="103"/>
+      <c r="H65" s="95"/>
+      <c r="I65" s="108"/>
+      <c r="J65" s="109"/>
+      <c r="K65" s="103"/>
+      <c r="L65" s="95"/>
+      <c r="M65" s="108"/>
+      <c r="N65" s="108"/>
+      <c r="O65" s="98"/>
+      <c r="P65" s="98"/>
+    </row>
+    <row r="66" ht="24" customHeight="1">
+      <c r="B66" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="110"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="111"/>
+      <c r="F66" s="112"/>
+      <c r="G66" s="110"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="111"/>
+      <c r="J66" s="112"/>
+      <c r="K66" s="110"/>
+      <c r="L66" s="97"/>
+      <c r="M66" s="111"/>
+      <c r="N66" s="111"/>
+      <c r="O66" s="113"/>
+      <c r="P66" s="113"/>
+    </row>
+    <row r="67" ht="24" customHeight="1">
+      <c r="B67" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="61"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="65"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="64"/>
+      <c r="N67" s="64"/>
+      <c r="O67" s="63"/>
+      <c r="P67" s="63"/>
+    </row>
+    <row r="68" ht="30" customHeight="1">
+      <c r="B68" s="116" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="117"/>
+      <c r="D68" s="118"/>
+      <c r="E68" s="118"/>
+      <c r="F68" s="118"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="118"/>
+      <c r="I68" s="118"/>
+      <c r="J68" s="119"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="118"/>
+      <c r="M68" s="118"/>
+      <c r="N68" s="118"/>
+      <c r="O68" s="119"/>
+      <c r="P68" s="120"/>
+    </row>
+    <row r="69" ht="24" customHeight="1" s="94" customFormat="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="D5:P5"/>
@@ -3791,6 +3982,9 @@
     <mergeCell ref="C52:F52"/>
     <mergeCell ref="G52:J52"/>
     <mergeCell ref="K52:O52"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="K61:O61"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="expression" dxfId="0" priority="3">
@@ -3895,7 +4089,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>16</v>
@@ -3928,7 +4122,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="B7" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -4189,7 +4383,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -6452,10 +6646,10 @@
     <row r="2" ht="24" customHeight="1">
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -6490,25 +6684,25 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="5" customFormat="1">
       <c r="C5" s="130" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="130"/>
       <c r="E5" s="130" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5" s="130"/>
       <c r="G5" s="130"/>
       <c r="H5" s="73"/>
       <c r="I5" s="130" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J5" s="130"/>
       <c r="K5" s="130" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L5" s="130"/>
       <c r="M5" s="130" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N5" s="130"/>
       <c r="O5" s="68" t="s">
@@ -6540,7 +6734,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="9"/>
@@ -6556,7 +6750,7 @@
       <c r="M7" s="133"/>
       <c r="N7" s="134"/>
       <c r="O7" s="135" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P7" s="133"/>
       <c r="Q7" s="133"/>
@@ -6567,14 +6761,14 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>23</v>
@@ -6628,14 +6822,14 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="72" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" s="77">
         <v>0</v>
@@ -6689,14 +6883,14 @@
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E10" s="77">
         <v>0</v>
@@ -6750,14 +6944,14 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="72" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E11" s="77">
         <v>0</v>
@@ -6813,7 +7007,7 @@
       <c r="B12" s="27"/>
       <c r="C12" s="38"/>
       <c r="D12" s="39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E12" s="50">
         <v>0</v>
@@ -6871,13 +7065,13 @@
     <row r="14" ht="24" customHeight="1" s="74" customFormat="1">
       <c r="B14" s="57"/>
       <c r="H14" s="84" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1" s="74" customFormat="1">
       <c r="B15" s="57"/>
       <c r="H15" s="135" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I15" s="133"/>
       <c r="J15" s="133"/>
@@ -6940,7 +7134,7 @@
     </row>
     <row r="17" ht="24" customHeight="1" s="74" customFormat="1">
       <c r="A17" s="74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" s="57"/>
       <c r="H17" s="128">
@@ -6974,7 +7168,7 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="72" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18" s="57"/>
       <c r="H18" s="128">
@@ -7008,7 +7202,7 @@
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B19" s="57"/>
       <c r="H19" s="128">
@@ -7128,7 +7322,7 @@
       <c r="M24" s="133"/>
       <c r="N24" s="134"/>
       <c r="O24" s="135" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P24" s="133"/>
       <c r="Q24" s="133"/>
@@ -7139,14 +7333,14 @@
     </row>
     <row r="25" ht="24" customHeight="1">
       <c r="A25" s="72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E25" s="39" t="s">
         <v>23</v>
@@ -7200,14 +7394,14 @@
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="A26" s="72" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E26" s="77">
         <v>0</v>
@@ -7261,14 +7455,14 @@
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="A27" s="72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E27" s="77">
         <v>0</v>
@@ -7322,14 +7516,14 @@
     </row>
     <row r="28" ht="24" customHeight="1">
       <c r="A28" s="72" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E28" s="77">
         <v>0</v>
@@ -7385,7 +7579,7 @@
       <c r="B29" s="27"/>
       <c r="C29" s="38"/>
       <c r="D29" s="39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E29" s="50">
         <v>0</v>
@@ -7445,7 +7639,7 @@
       <c r="D31" s="54"/>
       <c r="E31" s="75"/>
       <c r="F31" s="140" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G31" s="140"/>
       <c r="H31" s="140"/>
@@ -7491,7 +7685,7 @@
       </c>
       <c r="D33" s="54"/>
       <c r="F33" s="140" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G33" s="140"/>
       <c r="H33" s="140"/>
@@ -7624,7 +7818,7 @@
       </c>
       <c r="D39" s="54"/>
       <c r="F39" s="131" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G39" s="131"/>
       <c r="H39" s="131"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/Stub Advertiser DAY EMN PT Q4'19 Plan Rev - 12-16.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/Stub Advertiser DAY EMN PT Q4'19 Plan Rev - 12-16.xlsx
@@ -250,7 +250,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/14/20</t>
+    <t>Created 02/19/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -301,7 +301,7 @@
     <t>~80% Minimum TV HH Coverage</t>
   </si>
   <si>
-    <t>DAY - 09:00am - 04:00pm, EMN - 04:00am - 10:00am, PT - 08:00pm - 11:00pm</t>
+    <t>DAY - M-SU 09:00am - 04:00pm, EMN - M-SU 04:00am - 10:00am, PT - M-SU 08:00pm - 11:00pm</t>
   </si>
   <si>
     <t>All CPMs are derived from 100% broadcast deliveries, no cable unless otherwise noted.</t>
